--- a/Tailieu/Thietke/Danh sách chức năng.xlsx
+++ b/Tailieu/Thietke/Danh sách chức năng.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25601"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC4706E0-194F-4B79-AD34-039E84CDE8DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1500" yWindow="336" windowWidth="8340" windowHeight="11904" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1500" yWindow="330" windowWidth="8340" windowHeight="11910"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -382,7 +381,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -560,23 +559,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -612,23 +594,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -804,28 +769,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D107" sqref="D107"/>
+    <sheetView tabSelected="1" topLeftCell="A100" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection sqref="A1:C107"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.88671875" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" style="7" customWidth="1"/>
-    <col min="3" max="3" width="32.33203125" style="7" customWidth="1"/>
+    <col min="1" max="1" width="3.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" style="7" customWidth="1"/>
+    <col min="3" max="3" width="32.28515625" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
     </row>
-    <row r="3" spans="1:3" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -836,7 +801,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>1</v>
       </c>
@@ -847,68 +812,68 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>2</v>
       </c>
@@ -919,166 +884,166 @@
         <v>79</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="B32" s="5"/>
       <c r="C32" s="5" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
       <c r="B33" s="5"/>
       <c r="C33" s="5" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>3</v>
       </c>
@@ -1089,47 +1054,47 @@
         <v>61</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
       <c r="B39" s="5"/>
       <c r="C39" s="5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
       <c r="B40" s="5"/>
       <c r="C40" s="5" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
       <c r="B41" s="5"/>
       <c r="C41" s="5" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
       <c r="B42" s="5"/>
       <c r="C42" s="5" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
       <c r="B43" s="5"/>
       <c r="C43" s="5" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="4"/>
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <v>4</v>
       </c>
@@ -1140,19 +1105,19 @@
         <v>64</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="4"/>
       <c r="B46" s="5"/>
       <c r="C46" s="5" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="4"/>
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
         <v>5</v>
       </c>
@@ -1163,40 +1128,40 @@
         <v>96</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="4"/>
       <c r="B49" s="5"/>
       <c r="C49" s="5" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="4"/>
       <c r="B50" s="5"/>
       <c r="C50" s="5" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="4"/>
       <c r="B51" s="5"/>
       <c r="C51" s="5" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="4"/>
       <c r="B52" s="5"/>
       <c r="C52" s="5" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="4"/>
       <c r="B53" s="5"/>
       <c r="C53" s="5"/>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
         <v>6</v>
       </c>
@@ -1207,40 +1172,40 @@
         <v>25</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="4"/>
       <c r="B55" s="5"/>
       <c r="C55" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="4"/>
       <c r="B56" s="5"/>
       <c r="C56" s="5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="4"/>
       <c r="B57" s="5"/>
       <c r="C57" s="5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="4"/>
       <c r="B58" s="5"/>
       <c r="C58" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="4"/>
       <c r="B59" s="5"/>
       <c r="C59" s="5"/>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
         <v>7</v>
       </c>
@@ -1251,40 +1216,40 @@
         <v>31</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="4"/>
       <c r="B61" s="5"/>
       <c r="C61" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="4"/>
       <c r="B62" s="5"/>
       <c r="C62" s="5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="4"/>
       <c r="B63" s="5"/>
       <c r="C63" s="5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="4"/>
       <c r="B64" s="5"/>
       <c r="C64" s="5" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="4"/>
       <c r="B65" s="5"/>
       <c r="C65" s="5"/>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="4">
         <v>8</v>
       </c>
@@ -1295,40 +1260,40 @@
         <v>37</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="4"/>
       <c r="B67" s="5"/>
       <c r="C67" s="5" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="4"/>
       <c r="B68" s="5"/>
       <c r="C68" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="4"/>
       <c r="B69" s="5"/>
       <c r="C69" s="5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="4"/>
       <c r="B70" s="5"/>
       <c r="C70" s="5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="4"/>
       <c r="B71" s="5"/>
       <c r="C71" s="5"/>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="4">
         <v>9</v>
       </c>
@@ -1339,40 +1304,40 @@
         <v>43</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="4"/>
       <c r="B73" s="5"/>
       <c r="C73" s="5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="4"/>
       <c r="B74" s="5"/>
       <c r="C74" s="5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="4"/>
       <c r="B75" s="5"/>
       <c r="C75" s="5" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="4"/>
       <c r="B76" s="5"/>
       <c r="C76" s="5" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="4"/>
       <c r="B77" s="5"/>
       <c r="C77" s="5"/>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="4">
         <v>10</v>
       </c>
@@ -1383,40 +1348,40 @@
         <v>49</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="4"/>
       <c r="B79" s="5"/>
       <c r="C79" s="5" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="4"/>
       <c r="B80" s="5"/>
       <c r="C80" s="5" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="4"/>
       <c r="B81" s="5"/>
       <c r="C81" s="5" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="4"/>
       <c r="B82" s="5"/>
       <c r="C82" s="5" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="4"/>
       <c r="B83" s="5"/>
       <c r="C83" s="5"/>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="4">
         <v>11</v>
       </c>
@@ -1427,40 +1392,40 @@
         <v>54</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="4"/>
       <c r="B85" s="5"/>
       <c r="C85" s="5" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="4"/>
       <c r="B86" s="5"/>
       <c r="C86" s="5" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="4"/>
       <c r="B87" s="5"/>
       <c r="C87" s="5" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="4"/>
       <c r="B88" s="5"/>
       <c r="C88" s="5" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="4"/>
       <c r="B89" s="5"/>
       <c r="C89" s="5"/>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="4">
         <v>12</v>
       </c>
@@ -1471,26 +1436,26 @@
         <v>70</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="4"/>
       <c r="B91" s="5"/>
       <c r="C91" s="5" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="4"/>
       <c r="B92" s="5"/>
       <c r="C92" s="5" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="4"/>
       <c r="B93" s="5"/>
       <c r="C93" s="5"/>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="4">
         <v>13</v>
       </c>
@@ -1501,40 +1466,40 @@
         <v>73</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="4"/>
       <c r="B95" s="5"/>
       <c r="C95" s="5" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="96" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3" ht="105" x14ac:dyDescent="0.25">
       <c r="A96" s="4"/>
       <c r="B96" s="5"/>
       <c r="C96" s="5" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="4"/>
       <c r="B97" s="5"/>
       <c r="C97" s="5" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="4"/>
       <c r="B98" s="5"/>
       <c r="C98" s="5" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="4"/>
       <c r="B99" s="5"/>
       <c r="C99" s="5"/>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="4">
         <v>14</v>
       </c>
@@ -1545,49 +1510,49 @@
         <v>101</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="4"/>
       <c r="B101" s="5"/>
       <c r="C101" s="5" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="4"/>
       <c r="B102" s="5"/>
       <c r="C102" s="5" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="4"/>
       <c r="B103" s="5"/>
       <c r="C103" s="5" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="4"/>
       <c r="B104" s="5"/>
       <c r="C104" s="5" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="4"/>
       <c r="B105" s="5"/>
       <c r="C105" s="5" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="4"/>
       <c r="B106" s="5"/>
       <c r="C106" s="5" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="4"/>
       <c r="B107" s="5"/>
       <c r="C107" s="5" t="s">
@@ -1604,24 +1569,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
